--- a/SQL/資料表.xlsx
+++ b/SQL/資料表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
   <si>
     <t>主題編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,150 @@
   </si>
   <si>
     <t>回覆更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暱稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI(自動+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gossip_board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論版編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論版名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI(自動+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UQ(獨特)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J28"/>
+  <dimension ref="B1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1113,6 +1257,302 @@
         <v>33</v>
       </c>
       <c r="J28" s="2"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="8">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SQL/資料表.xlsx
+++ b/SQL/資料表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
   <si>
     <t>主題編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI(自動+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gossip_board</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,11 +377,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI(自動+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UQ(獨特)</t>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -478,13 +490,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +579,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J54"/>
+  <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -825,8 +911,9 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -920,7 +1007,9 @@
       <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1155,7 +1244,9 @@
       <c r="I23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
@@ -1194,7 +1285,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1263,7 +1354,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1274,7 +1365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>37</v>
       </c>
@@ -1282,7 +1373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -1290,7 +1381,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>35</v>
       </c>
@@ -1298,36 +1389,42 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="K36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="L36" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>61</v>
       </c>
@@ -1340,14 +1437,16 @@
       <c r="F37" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="I37" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>66</v>
       </c>
@@ -1361,10 +1460,12 @@
         <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>69</v>
       </c>
@@ -1377,8 +1478,9 @@
       <c r="E39" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>71</v>
       </c>
@@ -1391,8 +1493,9 @@
       <c r="E40" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>73</v>
       </c>
@@ -1405,8 +1508,9 @@
       <c r="E41" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>76</v>
       </c>
@@ -1419,8 +1523,9 @@
       <c r="E42" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>78</v>
       </c>
@@ -1430,8 +1535,9 @@
       <c r="D43" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>81</v>
       </c>
@@ -1444,105 +1550,124 @@
       <c r="E44" s="1">
         <v>45</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>39</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="8">
         <v>43966</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>35</v>
       </c>
       <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
         <v>64</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="I53" t="s">
+        <v>96</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
@@ -1551,13 +1676,18 @@
         <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SQL/資料表.xlsx
+++ b/SQL/資料表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\youshi\web\Java211-pj1\SQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="21555" windowHeight="8070"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
   <si>
     <t>主題編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,179 +230,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回覆更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暱稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號權限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gossip_board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論版編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論版名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>reply_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arti_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reply_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reply_update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回覆更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暱稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號權限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gossip_board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>討論版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>board_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>討論版編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>討論版名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto Increment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
+    <t>arti_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arti_txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -608,6 +617,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -655,7 +667,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,7 +702,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -901,23 +913,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
         <v>39</v>
       </c>
@@ -925,7 +938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -933,7 +946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -941,7 +954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -949,7 +962,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -957,7 +970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="17.25" thickBot="1">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
@@ -976,17 +989,23 @@
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12">
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1005,13 +1024,15 @@
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1028,9 +1049,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1043,13 +1066,15 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1062,15 +1087,17 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -1079,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
@@ -1087,11 +1114,13 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1108,13 +1137,15 @@
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1131,9 +1162,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1149,12 +1182,14 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1162,7 +1197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -1170,7 +1205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -1178,7 +1213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -1194,7 +1229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="17.25" thickBot="1">
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1213,17 +1248,23 @@
       <c r="G22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12">
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1241,16 +1282,20 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="L23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>48</v>
@@ -1259,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4" t="s">
@@ -1267,13 +1312,15 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12">
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>49</v>
@@ -1284,18 +1331,20 @@
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="2:12">
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>26</v>
@@ -1303,15 +1352,17 @@
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12">
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>50</v>
@@ -1324,11 +1375,13 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="2:12">
       <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1349,23 +1402,23 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
       <c r="B33" t="s">
         <v>37</v>
       </c>
@@ -1373,7 +1426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -1381,15 +1434,15 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="17.25" thickBot="1">
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="17.25" thickBot="1">
       <c r="B36" s="9" t="s">
         <v>7</v>
       </c>
@@ -1409,10 +1462,10 @@
         <v>13</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>12</v>
@@ -1424,143 +1477,143 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12">
       <c r="B37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1">
         <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E39" s="1">
         <v>45</v>
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12">
       <c r="B40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1">
         <v>45</v>
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12">
       <c r="B41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E41" s="1">
         <v>45</v>
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12">
       <c r="B42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E42" s="1">
         <v>45</v>
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12">
       <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
         <v>78</v>
       </c>
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1">
         <v>45</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12">
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12">
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -1569,16 +1622,16 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12">
       <c r="B48" t="s">
         <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15">
       <c r="B49" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +1640,7 @@
       </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15">
       <c r="B50" t="s">
         <v>36</v>
       </c>
@@ -1596,16 +1649,16 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" ht="17.25" thickBot="1">
       <c r="B51" t="s">
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" ht="17.25" thickBot="1">
       <c r="B52" s="9" t="s">
         <v>7</v>
       </c>
@@ -1625,10 +1678,10 @@
         <v>13</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>12</v>
@@ -1640,48 +1693,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15">
       <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
         <v>87</v>
       </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" t="s">
-        <v>91</v>
-      </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15">
       <c r="B54" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E54" s="1">
         <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15">
       <c r="O55" s="1"/>
     </row>
   </sheetData>
@@ -1697,7 +1750,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,7 +1763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQL/資料表.xlsx
+++ b/SQL/資料表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <t>主題編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gossip_board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gossip_board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>board</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,6 +399,10 @@
   </si>
   <si>
     <t>arti_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gossipboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -935,7 +931,7 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="2:12">
@@ -943,7 +939,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -951,7 +947,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -967,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" thickBot="1">
@@ -990,10 +986,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>12</v>
@@ -1097,7 +1093,7 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -1194,7 +1190,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -1202,7 +1198,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -1210,7 +1206,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -1226,7 +1222,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="17.25" thickBot="1">
@@ -1249,10 +1245,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>12</v>
@@ -1266,10 +1262,10 @@
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>27</v>
@@ -1290,15 +1286,15 @@
         <v>32</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>25</v>
@@ -1320,10 +1316,10 @@
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>26</v>
@@ -1334,17 +1330,17 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>26</v>
@@ -1362,10 +1358,10 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>25</v>
@@ -1383,10 +1379,10 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>24</v>
@@ -1407,7 +1403,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -1415,7 +1411,7 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -1423,7 +1419,7 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:12">
@@ -1439,7 +1435,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="17.25" thickBot="1">
@@ -1462,10 +1458,10 @@
         <v>13</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>12</v>
@@ -1479,54 +1475,54 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>58</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>59</v>
       </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
         <v>62</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>63</v>
-      </c>
-      <c r="D38" t="s">
-        <v>64</v>
       </c>
       <c r="E38" s="1">
         <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J38" s="1"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
         <v>65</v>
       </c>
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="1">
         <v>45</v>
@@ -1535,13 +1531,13 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
         <v>67</v>
       </c>
-      <c r="C40" t="s">
-        <v>68</v>
-      </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E40" s="1">
         <v>45</v>
@@ -1550,13 +1546,13 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>71</v>
       </c>
       <c r="E41" s="1">
         <v>45</v>
@@ -1565,13 +1561,13 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
         <v>72</v>
       </c>
-      <c r="C42" t="s">
-        <v>73</v>
-      </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="1">
         <v>45</v>
@@ -1580,31 +1576,31 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1">
         <v>45</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -1618,7 +1614,7 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -1627,7 +1623,7 @@
         <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -1636,7 +1632,7 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -1654,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -1678,10 +1674,10 @@
         <v>13</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>12</v>
@@ -1695,41 +1691,41 @@
     </row>
     <row r="53" spans="2:15">
       <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" t="s">
-        <v>87</v>
-      </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="2:15">
       <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="1">
         <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J54" s="1"/>
       <c r="L54" s="1"/>
